--- a/REGULAR/MARIDUQUE, ANNE RENELYN PEREZ.xlsx
+++ b/REGULAR/MARIDUQUE, ANNE RENELYN PEREZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D90AE5-3583-4A8B-B867-03B1ECF49EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,12 +273,15 @@
   </si>
   <si>
     <t>3/14,23,29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -923,7 +925,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -971,7 +972,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1014,7 +1015,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1079,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1139,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1205,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1268,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1366,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1425,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1490,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1533,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1608,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1794,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1860,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1918,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1984,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2040,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2115,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2158,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2224,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2280,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,25 +2376,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2700,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2710,7 +2711,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2718,34 +2719,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A90" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2766,7 +2767,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2789,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2810,7 +2811,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2818,7 +2819,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2831,7 +2832,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2848,7 +2849,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2892,7 +2893,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.739</v>
+        <v>118.739</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2902,12 +2903,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.25200000000001</v>
+        <v>69.25200000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2929,7 +2930,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>43112</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>43138</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -3001,7 +3002,7 @@
         <v>43138</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -3023,7 +3024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3071,7 +3072,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43191</v>
       </c>
@@ -3091,7 +3092,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3111,7 +3112,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -3131,7 +3132,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -3231,7 +3232,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -3279,7 +3280,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>47</v>
@@ -3301,7 +3302,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -3323,7 +3324,7 @@
         <v>43796</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3343,7 +3344,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -3365,7 +3366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43405</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -3549,7 +3550,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43617</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>47</v>
@@ -3617,7 +3618,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3637,7 +3638,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43678</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43709</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>47</v>
@@ -3705,7 +3706,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -3727,7 +3728,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43739</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>47</v>
@@ -3775,7 +3776,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -3797,7 +3798,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -3817,7 +3818,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43800</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>58</v>
@@ -3865,7 +3866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>58</v>
@@ -3887,7 +3888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>47</v>
@@ -3909,7 +3910,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>54</v>
@@ -3929,7 +3930,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3948,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43831</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43862</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>64</v>
@@ -4011,7 +4012,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43891</v>
       </c>
@@ -4033,7 +4034,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43922</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43952</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43983</v>
       </c>
@@ -4097,7 +4098,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -4117,7 +4118,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>67</v>
@@ -4161,7 +4162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44075</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>56</v>
@@ -4209,7 +4210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -4255,7 +4256,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44166</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>71</v>
@@ -4301,7 +4302,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>72</v>
       </c>
@@ -4319,7 +4320,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -4359,7 +4360,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -4399,7 +4400,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44317</v>
       </c>
@@ -4419,7 +4420,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44348</v>
       </c>
@@ -4439,7 +4440,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44378</v>
       </c>
@@ -4459,7 +4460,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -4479,7 +4480,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -4499,7 +4500,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -4519,7 +4520,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44501</v>
       </c>
@@ -4539,7 +4540,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44531</v>
       </c>
@@ -4563,7 +4564,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>74</v>
       </c>
@@ -4581,7 +4582,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44593</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44621</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44652</v>
       </c>
@@ -4665,7 +4666,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44682</v>
       </c>
@@ -4685,7 +4686,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44713</v>
       </c>
@@ -4705,7 +4706,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44743</v>
       </c>
@@ -4725,7 +4726,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44774</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44805</v>
       </c>
@@ -4771,7 +4772,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44835</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44866</v>
       </c>
@@ -4823,24 +4824,30 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>44896</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
+        <v>77</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4855,55 +4862,67 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>44927</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>44958</v>
+      </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>44986</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4919,7 +4938,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4935,7 +4954,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4951,7 +4970,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4967,7 +4986,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4983,7 +5002,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4999,7 +5018,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5015,7 +5034,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5031,7 +5050,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5047,7 +5066,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5063,7 +5082,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5079,7 +5098,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5095,7 +5114,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5111,7 +5130,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5127,7 +5146,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5143,7 +5162,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5159,7 +5178,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5175,7 +5194,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5191,7 +5210,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5207,7 +5226,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5223,7 +5242,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5239,7 +5258,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5255,7 +5274,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5271,7 +5290,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5287,7 +5306,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5303,7 +5322,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5319,7 +5338,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5335,7 +5354,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5351,7 +5370,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5367,7 +5386,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5383,7 +5402,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5399,7 +5418,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5415,7 +5434,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5431,7 +5450,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5447,7 +5466,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5463,7 +5482,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5479,7 +5498,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5495,7 +5514,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5511,7 +5530,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5527,7 +5546,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5543,7 +5562,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
       <c r="B142" s="15"/>
       <c r="C142" s="42"/>
@@ -5574,15 +5593,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5600,28 +5619,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5634,7 +5653,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>59.988999999999997</v>
       </c>
@@ -5687,17 +5706,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5718,7 +5737,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5745,7 +5764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5771,7 +5790,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5797,7 +5816,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5823,7 +5842,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5849,7 +5868,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5875,7 +5894,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5901,7 +5920,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5927,7 +5946,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5947,7 +5966,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5967,7 +5986,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5987,7 +6006,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6008,7 +6027,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6029,7 +6048,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6050,7 +6069,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6071,7 +6090,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6113,7 +6132,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6176,7 +6195,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6197,7 +6216,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6218,7 +6237,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6239,7 +6258,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6260,7 +6279,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6281,7 +6300,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6302,7 +6321,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6323,7 +6342,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6344,7 +6363,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6365,7 +6384,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6386,7 +6405,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6407,7 +6426,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6416,7 +6435,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6425,7 +6444,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6434,7 +6453,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6443,7 +6462,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6452,7 +6471,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6461,7 +6480,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6470,7 +6489,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6479,7 +6498,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6488,7 +6507,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6497,7 +6516,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6506,7 +6525,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6515,7 +6534,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6524,7 +6543,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6533,7 +6552,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6542,7 +6561,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6551,7 +6570,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6560,7 +6579,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6569,7 +6588,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6578,7 +6597,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6587,7 +6606,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6596,7 +6615,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6605,7 +6624,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6614,7 +6633,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6623,7 +6642,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6632,7 +6651,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6641,7 +6660,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6650,7 +6669,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6659,7 +6678,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6668,7 +6687,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
